--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>угол</t>
   </si>
@@ -50,6 +51,24 @@
   </si>
   <si>
     <t>h=2.5см</t>
+  </si>
+  <si>
+    <t>Задание 2.2</t>
+  </si>
+  <si>
+    <t>l = 70см</t>
+  </si>
+  <si>
+    <t>h, см</t>
+  </si>
+  <si>
+    <t>2Ua, В</t>
+  </si>
+  <si>
+    <t>l=100 см</t>
+  </si>
+  <si>
+    <t>l=130 см</t>
   </si>
 </sst>
 </file>
@@ -100,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,7 +605,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,4 +856,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>